--- a/XAI Output Doku.xlsx
+++ b/XAI Output Doku.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ycdc19w\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linus\OneDrive - beckhaus consulting\Desktop\XAI-Vehicle-Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27C606CE-B27A-497F-915F-5E2E7AC90C31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420DB9B3-390F-44B9-84BD-DCF01291209F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-3060" windowWidth="38640" windowHeight="21240" xr2:uid="{477CEC8A-5757-426F-AFBC-8C796FAA1454}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{477CEC8A-5757-426F-AFBC-8C796FAA1454}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>SwinTransformer</t>
   </si>
   <si>
-    <t>type_selectionCriterion_camMethod_camDataset_camModel_segModel_additional_dd_MM_yyyy</t>
-  </si>
-  <si>
     <t>onylProps</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>use a custom forward that assigns pixels under the threshold to a background category</t>
+  </si>
+  <si>
+    <t>type_selectionCriterion_camMethod_camDataset_camModel_segModel_segDataset_additional_dd_MM_yyyy</t>
   </si>
 </sst>
 </file>
@@ -181,7 +181,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -496,24 +496,24 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="93.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="78.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -538,7 +538,7 @@
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
         <v>4</v>
       </c>
@@ -561,7 +561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
         <v>5</v>
       </c>
@@ -584,7 +584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
         <v>6</v>
       </c>
@@ -595,29 +595,29 @@
         <v>18</v>
       </c>
       <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
         <v>28</v>
       </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H5" t="s">
         <v>12</v>
       </c>
       <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
         <v>30</v>
       </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
         <v>13</v>
       </c>

--- a/XAI Output Doku.xlsx
+++ b/XAI Output Doku.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ycdc19w\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linus\OneDrive - beckhaus consulting\Desktop\XAI-Vehicle-Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27C606CE-B27A-497F-915F-5E2E7AC90C31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D217070-03A7-4175-AF30-ED098EE916D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-3060" windowWidth="38640" windowHeight="21240" xr2:uid="{477CEC8A-5757-426F-AFBC-8C796FAA1454}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{477CEC8A-5757-426F-AFBC-8C796FAA1454}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <t>SwinTransformer</t>
   </si>
   <si>
-    <t>type_selectionCriterion_camMethod_camDataset_camModel_segModel_additional_dd_MM_yyyy</t>
-  </si>
-  <si>
     <t>onylProps</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>use a custom forward that assigns pixels under the threshold to a background category</t>
+  </si>
+  <si>
+    <t>type_selectionCriterion_camMethod_camDataset_camModel_segModel_segDataset_additional_dd_MM_yyyy</t>
   </si>
 </sst>
 </file>
@@ -181,7 +181,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -496,24 +496,24 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="78.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -538,7 +538,7 @@
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F2" t="s">
         <v>4</v>
       </c>
@@ -561,7 +561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F3" t="s">
         <v>5</v>
       </c>
@@ -584,7 +584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F4" t="s">
         <v>6</v>
       </c>
@@ -595,29 +595,29 @@
         <v>18</v>
       </c>
       <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
         <v>28</v>
       </c>
-      <c r="M4" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H5" t="s">
         <v>12</v>
       </c>
       <c r="L5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
         <v>30</v>
       </c>
-      <c r="M5" t="s">
-        <v>31</v>
-      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H7" t="s">
         <v>13</v>
       </c>

--- a/XAI Output Doku.xlsx
+++ b/XAI Output Doku.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linus\OneDrive - beckhaus consulting\Desktop\XAI-Vehicle-Classification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linus\Desktop\XAI-Vehicle-Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420DB9B3-390F-44B9-84BD-DCF01291209F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA980FD-7D20-4CB1-B14C-14C8EF9C3819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{477CEC8A-5757-426F-AFBC-8C796FAA1454}"/>
+    <workbookView xWindow="1980" yWindow="8730" windowWidth="28800" windowHeight="15885" xr2:uid="{477CEC8A-5757-426F-AFBC-8C796FAA1454}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Type</t>
   </si>
@@ -130,6 +130,30 @@
   </si>
   <si>
     <t>type_selectionCriterion_camMethod_camDataset_camModel_segModel_segDataset_additional_dd_MM_yyyy</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>CAMs where generated using GPU instead of CPU</t>
+  </si>
+  <si>
+    <t>Full_gradCAM++_ResNet_CompCars_original_ocrnet_hr48_carparts_noflip_06_08_2022</t>
+  </si>
+  <si>
+    <t>Full_gradCAM++_ResNet_CompCars_original_ocrnet_hr48_carparts_noflip_ShowPropArea_06_08_2022</t>
+  </si>
+  <si>
+    <t>Full_LayerCAM_ResNet_CompCars_original_ocrnet_hr48_carparts_noflip_06_08_2022</t>
+  </si>
+  <si>
+    <t>Full_XGradCAM_ResNet_CompCars_original_ocrnet_hr48_carparts_noflip_06_08_2022</t>
+  </si>
+  <si>
+    <t>Full_LayerCAM_ResNet_CompCars_original_ocrnet_hr48_carparts_noflip_ShowPropArea_06_08_2022</t>
+  </si>
+  <si>
+    <t>Full_XGradCAM_ResNet_CompCars_original_ocrnet_hr48_carparts_noflip_ShowPropArea_06_08_2022</t>
   </si>
 </sst>
 </file>
@@ -493,25 +517,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FB80D6-0004-4EA3-B998-13DE28C90911}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="93.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="101.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="78.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -538,7 +562,7 @@
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>4</v>
       </c>
@@ -561,7 +585,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>5</v>
       </c>
@@ -584,7 +608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>6</v>
       </c>
@@ -601,7 +625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H5" t="s">
         <v>12</v>
       </c>
@@ -612,14 +636,50 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
